--- a/InputData/trans/FoVBPD/Fraction of Vehicle Batteries Produced Domestically.xlsx
+++ b/InputData/trans/FoVBPD/Fraction of Vehicle Batteries Produced Domestically.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\FoVBPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\FoVBPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AECF23-A61B-44F8-B5D9-89EF6743C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE59A0-EE5E-466E-B77C-7B014BF6DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="58170" yWindow="570" windowWidth="21600" windowHeight="15210" activeTab="4" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="FoVBPD" sheetId="2" r:id="rId2"/>
+    <sheet name="SEIA" sheetId="3" r:id="rId2"/>
+    <sheet name="Argonne" sheetId="4" r:id="rId3"/>
+    <sheet name="S&amp;P" sheetId="5" r:id="rId4"/>
+    <sheet name="FoVBPD" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,52 +37,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Sources:</t>
   </si>
   <si>
+    <t>Dmnl</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>https://seia.org/research-resources/energizing-american-battery-storage-manufacturing/</t>
+  </si>
+  <si>
+    <t>SEIA</t>
+  </si>
+  <si>
+    <t>Energizing American Battery Storage Manufacturing</t>
+  </si>
+  <si>
+    <t>Figures 2, 3</t>
+  </si>
+  <si>
+    <t>This variable affects what portion of newly sold grid battery capacity qualifies for Vehicle Battery Production subsidies,</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>US manufacturing capacity for for battery cells</t>
+  </si>
+  <si>
+    <t>(pulled from image)</t>
+  </si>
+  <si>
+    <t>Share of capacity dedicated to non-automotive applications (primarily BESS)</t>
+  </si>
+  <si>
+    <t>* assumes the same ratio of unannounced applications will be BESS as announced applications</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Manufacturing  capacity</t>
+  </si>
+  <si>
+    <t>https://www.spglobal.com/mobility/en/research-analysis/briefcase-the-game-of-tariffs-ev-battery-imports.html</t>
+  </si>
+  <si>
+    <t>Argonne National Laboratory</t>
+  </si>
+  <si>
+    <t>Figure 15</t>
+  </si>
+  <si>
+    <t>Securing Critical Minerals for the U.S. Electric Vehicle Industry</t>
+  </si>
+  <si>
+    <t>https://publications.anl.gov/anlpubs/2024/03/187907.pdf</t>
+  </si>
+  <si>
+    <t>Quantification of Commercially Planned Battery Component Supply in North America through 2035</t>
+  </si>
+  <si>
+    <t>https://publications.anl.gov/anlpubs/2024/03/187735.pdf</t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>S&amp;P Global</t>
+  </si>
+  <si>
+    <t>BriefCASE: The game of tariffs - US moves to stifle EV battery imports from mainland China</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>if relevant. We source 2022-2030 grid battery demand projections and manufacturing capacity from three sources: SEIA, ANL, and S&amp;P.</t>
+  </si>
+  <si>
+    <t>Share of US BESS demand that can be met with domestic manufacturing</t>
+  </si>
+  <si>
+    <t>Current share of EV battery sourcing</t>
+  </si>
+  <si>
+    <t>US demand for EV batteries</t>
+  </si>
+  <si>
+    <t>Approximate US manufacturing capacity for EVs</t>
+  </si>
+  <si>
+    <t>Fraction of Vehicle Batteries Produced Domestically</t>
+  </si>
+  <si>
     <t>FoVBPD Fraction of Vehicle Batteries Produced Domestically</t>
   </si>
   <si>
-    <t>Dmnl</t>
-  </si>
-  <si>
-    <t>Fraction of Vehicle Batteries Produced Domestically</t>
-  </si>
-  <si>
-    <t>ICCT and Energy Innovation</t>
-  </si>
-  <si>
-    <t>Analyzing the Impact of the Inflation Reduction Act on Electric Vehicle Uptake in the United States</t>
-  </si>
-  <si>
-    <t>https://energyinnovation.org/wp-content/uploads/2023/01/IRA-EV-assessment-white-paper-letter-v46.pdf</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>This variable affects what portion of newly sold vehicles qualify for Vehicle Battery Production subsidy,</t>
-  </si>
-  <si>
-    <t>if relevant. We assume that the U.S. has enough battery manufacturing capacity to supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% of vehicle battery demand domestically. All U.S. state models should use the U.S. vaues, since the </t>
-  </si>
-  <si>
-    <t>battery manufacturing production tax credit applies to all U.S. manufactured batteries.</t>
+    <t>We assume US vehicle battery manufacturing potential reaches 100% of demand by 2030 due to IRA incentives.</t>
+  </si>
+  <si>
+    <t>Share of US vehicle battery demand that can be met with domestic manufacturing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +164,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,10 +233,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -125,9 +246,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,10 +282,262 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7823C95A-CB9F-4507-0FCD-B5FBA4BAE489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="180975"/>
+          <a:ext cx="5943600" cy="3027694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281E5C1B-9A69-9AE7-2A3B-B00561719351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3438526"/>
+          <a:ext cx="5943600" cy="3791191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>239094</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D21F8C2-D542-0E47-8169-B020B75AB36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="180975"/>
+          <a:ext cx="6944694" cy="4163006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EF3E32-DA8B-577D-4F15-5CD46426CBFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4705350"/>
+          <a:ext cx="4267200" cy="3023294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Country Sources for Lithion-ion Used in US Electric Vehicles ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CF438A-CB48-D04E-8FBA-86B0975D3E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="180975"/>
+          <a:ext cx="5000625" cy="3367653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,76 +831,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -517,24 +1006,259 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8456871-96FC-47A8-BE1A-65358738DEAC}">
+  <dimension ref="L2:O33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>2022</v>
+      </c>
+      <c r="M3">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>2030</v>
+      </c>
+      <c r="M4" s="1">
+        <v>466</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>2022</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>2030</v>
+      </c>
+      <c r="M23">
+        <v>773</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <v>2030</v>
+      </c>
+      <c r="M26" s="4">
+        <f>0.1+0.1/0.75*0.25</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>2030</v>
+      </c>
+      <c r="M30" s="6">
+        <f>M23*(1-M26)</f>
+        <v>669.93333333333339</v>
+      </c>
+      <c r="N30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="12:15" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>2030</v>
+      </c>
+      <c r="M33" s="7">
+        <f>M30/M4</f>
+        <v>1.4376251788268957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FB018-EAB2-4AB3-B95C-024DA6C229C7}">
+  <dimension ref="J6:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="14:15" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="14:15" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>2023</v>
+      </c>
+      <c r="O7">
+        <f>67+135</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="14:15" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>2030</v>
+      </c>
+      <c r="O8">
+        <f>975+137</f>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J28">
+        <v>2023</v>
+      </c>
+      <c r="K28">
+        <v>87</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J29">
+        <v>2030</v>
+      </c>
+      <c r="K29">
+        <v>965</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J32">
+        <v>2030</v>
+      </c>
+      <c r="K32" s="7">
+        <f>O8/K29</f>
+        <v>1.1523316062176165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AB29A9-70CB-4471-AE81-9A64EFDA202F}">
+  <dimension ref="B21:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB58F1CD-3AD5-4A1E-8AA0-C74AF29D4BF2}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -627,98 +1351,109 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3">
+        <v>31</v>
+      </c>
+      <c r="B2" s="10">
+        <f>'S&amp;P'!B24</f>
+        <v>0.62</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B2</f>
+        <v>0.62</v>
+      </c>
+      <c r="D2" s="10">
+        <f>C2</f>
+        <v>0.62</v>
+      </c>
+      <c r="E2" s="10">
+        <f>D2</f>
+        <v>0.62</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" ref="F2" si="0">$E2+($K2-$E2)*(F1-$E1)/($K1-$E1)</f>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$E2+($K2-$E2)*(G1-$E1)/($K1-$E1)</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:J2" si="1">$E2+($K2-$E2)*(H1-$E1)/($K1-$E1)</f>
+        <v>0.81</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="1"/>
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="1"/>
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="K2" s="12">
+        <f>MIN(AVERAGE(Argonne!K32,SEIA!M33),1)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="13">
+        <f>$K2+($M2-$K2)*(L1-$K1)/($M1-$K1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1</v>
+      </c>
+      <c r="R2" s="13">
+        <v>1</v>
+      </c>
+      <c r="S2" s="13">
+        <v>1</v>
+      </c>
+      <c r="T2" s="13">
+        <v>1</v>
+      </c>
+      <c r="U2" s="13">
+        <v>1</v>
+      </c>
+      <c r="V2" s="13">
+        <v>1</v>
+      </c>
+      <c r="W2" s="13">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="13">
         <v>1</v>
       </c>
     </row>
